--- a/data/trans_bre/P16A06-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.984280205117268</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.686155642174542</v>
+        <v>5.686155642174541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.410444070212906</v>
@@ -649,7 +649,7 @@
         <v>3.190292404863451</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5104027427208636</v>
+        <v>0.5104027427208634</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.072547741121678</v>
+        <v>2.1919726814588</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.287029306050558</v>
+        <v>5.419400234013637</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.014289452807975</v>
+        <v>6.004479307340608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.753443875780814</v>
+        <v>1.623622684152373</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5021972711519757</v>
+        <v>0.4604141705019347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.731238322723989</v>
+        <v>1.775583527197333</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.760486319088427</v>
+        <v>1.794210048577407</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1099763433943747</v>
+        <v>0.1089485063567694</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.605427303584618</v>
+        <v>6.613307079794785</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.331842346280359</v>
+        <v>9.567818355569699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.897213423145832</v>
+        <v>10.04928649240241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.504834577883372</v>
+        <v>9.705411347677462</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.357547952264643</v>
+        <v>3.179240101979576</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7.56139661933692</v>
+        <v>7.593706261182376</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.344984959076238</v>
+        <v>5.522315933469523</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.028558919991374</v>
+        <v>1.093825200692935</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6692473108649655</v>
+        <v>0.5949455260444586</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.181984625052147</v>
+        <v>1.937409966953877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.8635206218923</v>
+        <v>1.634524358415218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.2567525063545</v>
+        <v>4.338676543039887</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2155974989415566</v>
+        <v>0.2283013086466682</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6950221708363516</v>
+        <v>0.577974368788596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5264476760849639</v>
+        <v>0.4306492596300849</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6753274020880842</v>
+        <v>0.6826820690725963</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.51537372788004</v>
+        <v>3.506267488719789</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.796090106342305</v>
+        <v>5.518441835578958</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.817739093972926</v>
+        <v>5.650794179557836</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.367059388660811</v>
+        <v>8.403038151170275</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.244140065457487</v>
+        <v>2.9561642155561</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.541678558594559</v>
+        <v>4.451458963962775</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.997293924665323</v>
+        <v>2.887710580044529</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.001851129378404</v>
+        <v>2.027576689930418</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5204953872319538</v>
+        <v>-0.5698341246169346</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.378298398710586</v>
+        <v>1.423236221992868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.211500809074935</v>
+        <v>0.9799324581562253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.525503891152015</v>
+        <v>2.427254772121954</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2842160331445999</v>
+        <v>-0.3079164922759858</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4707573289106576</v>
+        <v>0.5068124400476197</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3402103592407669</v>
+        <v>0.2483221770039678</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5094200451555619</v>
+        <v>0.4412263416272011</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.863136714826593</v>
+        <v>1.802674758743373</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.880779744491391</v>
+        <v>5.055286497337789</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.607064201717159</v>
+        <v>5.022495717042073</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.076015013634571</v>
+        <v>5.979044969483919</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.851318235350563</v>
+        <v>1.809073243181317</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.648661262528765</v>
+        <v>5.26024600501406</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.76699427812961</v>
+        <v>2.993024998560821</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.840261561342582</v>
+        <v>1.827486745508341</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.453458513375865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.658814782586279</v>
+        <v>3.658814782586276</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3833555245068149</v>
@@ -949,7 +949,7 @@
         <v>0.7743608884206334</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.083079400702791</v>
+        <v>1.08307940070279</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.228022712620424</v>
+        <v>-1.235450639301051</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.264504384188949</v>
+        <v>-2.047591997247358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.01876212090233611</v>
+        <v>0.06678565889355319</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.854376500892511</v>
+        <v>1.976138450314123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4708782227313871</v>
+        <v>-0.4826308283789013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5377425257861934</v>
+        <v>-0.5120044959897376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03743329375471144</v>
+        <v>-0.06467154390238797</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4014641361054332</v>
+        <v>0.450945757930824</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.011477089202802</v>
+        <v>3.343983487380847</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.422406899031028</v>
+        <v>2.318399156202391</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.209500415535453</v>
+        <v>4.98101791913457</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.352990871532773</v>
+        <v>5.386229116243697</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.39188590474051</v>
+        <v>2.730014797331578</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.285978989854335</v>
+        <v>1.099794362766786</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.30345924967717</v>
+        <v>2.318738804986149</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.212290656718698</v>
+        <v>2.155411907649967</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.939920912329562</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.221850921079097</v>
+        <v>5.221850921079095</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.151752105466894</v>
@@ -1049,7 +1049,7 @@
         <v>1.911791555464069</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.006672047234548</v>
+        <v>1.006672047234547</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.500333381070686</v>
+        <v>1.364533989806867</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.29912533682363</v>
+        <v>3.266685882921522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.941977299519667</v>
+        <v>3.874887410219707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.061164057614517</v>
+        <v>4.068740993143058</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6251560047751631</v>
+        <v>0.5586089750132499</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.3248717487365</v>
+        <v>1.355331327542151</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.284923252061307</v>
+        <v>1.24694351442245</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7136749055861036</v>
+        <v>0.7032799941224952</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.106734700858028</v>
+        <v>3.12808514697118</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.203641546195037</v>
+        <v>5.24904309083648</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.99268789812357</v>
+        <v>6.045488733975538</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.391574248768425</v>
+        <v>6.304664938031207</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.902326160054313</v>
+        <v>1.843114036851691</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.172552259010165</v>
+        <v>3.236307317212658</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.688778705841509</v>
+        <v>2.72505893642677</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.393304805737638</v>
+        <v>1.376441574160182</v>
       </c>
     </row>
     <row r="19">
